--- a/documentos/modelos finales/codigo pagina afip.xlsx
+++ b/documentos/modelos finales/codigo pagina afip.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\modelos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01242832-EAEF-495F-9C33-B0E4668B2C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B780BD-A357-4152-9823-0ABBDA7A0FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{B297FF39-EAC2-487A-B18B-73242F9C0580}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Código contribuyente</t>
-  </si>
-  <si>
     <t>Marca repetible</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>ANSSAL S/ASIG NO REMUNERATICAS</t>
+  </si>
+  <si>
+    <t>CódContri</t>
   </si>
 </sst>
 </file>
@@ -596,14 +596,14 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -631,58 +631,58 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -690,13 +690,13 @@
         <v>110000</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -752,13 +752,13 @@
         <v>110007</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -814,13 +814,13 @@
         <v>111000</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -876,13 +876,13 @@
         <v>111001</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -938,13 +938,13 @@
         <v>111002</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1000,13 +1000,13 @@
         <v>111003</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1062,13 +1062,13 @@
         <v>111004</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1124,13 +1124,13 @@
         <v>111005</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1186,13 +1186,13 @@
         <v>111006</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1248,13 +1248,13 @@
         <v>111007</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1310,13 +1310,13 @@
         <v>120000</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1372,13 +1372,13 @@
         <v>120001</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1434,13 +1434,13 @@
         <v>120003</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1496,13 +1496,13 @@
         <v>161000</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>161001</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1620,13 +1620,13 @@
         <v>161002</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1682,13 +1682,13 @@
         <v>161003</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1744,13 +1744,13 @@
         <v>520015</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1806,13 +1806,13 @@
         <v>520016</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1868,13 +1868,13 @@
         <v>520017</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1930,13 +1930,13 @@
         <v>521000</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1992,13 +1992,13 @@
         <v>521001</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2054,13 +2054,13 @@
         <v>521002</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2116,13 +2116,13 @@
         <v>521003</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2178,13 +2178,13 @@
         <v>521004</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2240,13 +2240,13 @@
         <v>551000</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2302,13 +2302,13 @@
         <v>810000</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>810001</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2426,13 +2426,13 @@
         <v>810002</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2488,13 +2488,13 @@
         <v>810004</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2550,13 +2550,13 @@
         <v>810006</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2612,13 +2612,13 @@
         <v>821000</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>821001</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2736,13 +2736,13 @@
         <v>821002</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2798,13 +2798,13 @@
         <v>821003</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2860,13 +2860,13 @@
         <v>821004</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2918,6 +2918,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>